--- a/ads_mini_project/scrapedata/12520.xlsx
+++ b/ads_mini_project/scrapedata/12520.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>clearly clue havent use 😄</t>
+          <t>clearly clue havent use</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>clearly clue havent use 😄</t>
+          <t>clearly clue havent use</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>available €29 per month 3 year contract 10 gb 5g free galaxy watch 6 include</t>
+          <t>available 29 per month 3 year contract 10 gb 5g free galaxy watch 6 include</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>clearly clue havent use 😄</t>
+          <t>clearly clue havent use</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>available €29 per month 3 year contract 10 gb 5g free galaxy watch 6 include</t>
+          <t>available 29 per month 3 year contract 10 gb 5g free galaxy watch 6 include</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>everyones babble terrible galaxy s10 user beautiful phone performance look fantastic ive ever see 50mp sensor person even actually 50mp design beautiful colour shape great take great phone affordable price google pixel 8 price discount £500 s10 fast performance thats great phone would love buy</t>
+          <t>everyones babble terrible galaxy s10 user beautiful phone performance look fantastic ive ever see 50mp sensor person even actually 50mp design beautiful colour shape great take great phone affordable price google pixel 8 price discount 500 s10 fast performance thats great phone would love buy</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>beautiful colour flat side make colour beautiful pop white frame fantastic performance camera battery screen £600 £130 good condition galaxy s20ultra</t>
+          <t>beautiful colour flat side make colour beautiful pop white frame fantastic performance camera battery screen 600 130 good condition galaxy s20ultra</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>available €29 per month 3 year contract 10 gb 5g free galaxy watch 6 include</t>
+          <t>available 29 per month 3 year contract 10 gb 5g free galaxy watch 6 include</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>everyones babble terrible galaxy s10 user beautiful phone performance look fantastic ive ever see 50mp sensor person even actually 50mp design beautiful colour shape great take great phone affordable price google pixel 8 price discount £500 s10 fast performance thats great phone would love buy</t>
+          <t>everyones babble terrible galaxy s10 user beautiful phone performance look fantastic ive ever see 50mp sensor person even actually 50mp design beautiful colour shape great take great phone affordable price google pixel 8 price discount 500 s10 fast performance thats great phone would love buy</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>beautiful colour flat side make colour beautiful pop white frame fantastic performance camera battery screen £600 £130 good condition galaxy s20ultra</t>
+          <t>beautiful colour flat side make colour beautiful pop white frame fantastic performance camera battery screen 600 130 good condition galaxy s20ultra</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>everyones babble terrible galaxy s10 user beautiful phone performance look fantastic ive ever see 50mp sensor person even actually 50mp design beautiful colour shape great take great phone affordable price google pixel 8 price discount £500 s10 fast performance thats great phone would love buy</t>
+          <t>everyones babble terrible galaxy s10 user beautiful phone performance look fantastic ive ever see 50mp sensor person even actually 50mp design beautiful colour shape great take great phone affordable price google pixel 8 price discount 500 s10 fast performance thats great phone would love buy</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>beautiful colour flat side make colour beautiful pop white frame fantastic performance camera battery screen £600 £130 good condition galaxy s20ultra</t>
+          <t>beautiful colour flat side make colour beautiful pop white frame fantastic performance camera battery screen 600 130 good condition galaxy s20ultra</t>
         </is>
       </c>
     </row>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>boring colour bro want rainbow phone☠️☠️</t>
+          <t>boring colour bro want rainbow phone</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>bias review ive ever read☠️☠️☠️for starter camera quality main camera look s23 telephoto ultrawide low mp count there literally nothing wrong design color great rlly like turquoise colour color suit camera ring arent even bad☠️ chipset use s23 fe use s22 basically exynos 22008 gen 1 improve literally high benchmark score phone never overheat get warm never hot phone flagship feature like wireless chargingsamsung dexwifi 6e premium like build get s22 battery horrendous maybe one ui 6 good bet dont get s23 fe slander go one long second ppl saw exynos 22008 gen 1 immediately biased review without even look phone great💯</t>
+          <t>bias review ive ever readfor starter camera quality main camera look s23 telephoto ultrawide low mp count there literally nothing wrong design color great rlly like turquoise colour color suit camera ring arent even bad chipset use s23 fe use s22 basically exynos 22008 gen 1 improve literally high benchmark score phone never overheat get warm never hot phone flagship feature like wireless chargingsamsung dexwifi 6e premium like build get s22 battery horrendous maybe one ui 6 good bet dont get s23 fe slander go one long second ppl saw exynos 22008 gen 1 immediately biased review without even look phone great</t>
         </is>
       </c>
     </row>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>mobile two different chip strategy doesn’t work samsung mistake</t>
+          <t>mobile two different chip strategy doesnt work samsung mistake</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>boring colour bro want rainbow phone☠️☠️</t>
+          <t>boring colour bro want rainbow phone</t>
         </is>
       </c>
     </row>
@@ -7442,7 +7442,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>bias review ive ever read☠️☠️☠️for starter camera quality main camera look s23 telephoto ultrawide low mp count there literally nothing wrong design color great rlly like turquoise colour color suit camera ring arent even bad☠️ chipset use s23 fe use s22 basically exynos 22008 gen 1 improve literally high benchmark score phone never overheat get warm never hot phone flagship feature like wireless chargingsamsung dexwifi 6e premium like build get s22 battery horrendous maybe one ui 6 good bet dont get s23 fe slander go one long second ppl saw exynos 22008 gen 1 immediately biased review without even look phone great💯</t>
+          <t>bias review ive ever readfor starter camera quality main camera look s23 telephoto ultrawide low mp count there literally nothing wrong design color great rlly like turquoise colour color suit camera ring arent even bad chipset use s23 fe use s22 basically exynos 22008 gen 1 improve literally high benchmark score phone never overheat get warm never hot phone flagship feature like wireless chargingsamsung dexwifi 6e premium like build get s22 battery horrendous maybe one ui 6 good bet dont get s23 fe slander go one long second ppl saw exynos 22008 gen 1 immediately biased review without even look phone great</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>mobile two different chip strategy doesn’t work samsung mistake</t>
+          <t>mobile two different chip strategy doesnt work samsung mistake</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>don´t think a5x series always popular</t>
+          <t>dont think a5x series always popular</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>boring colour bro want rainbow phone☠️☠️</t>
+          <t>boring colour bro want rainbow phone</t>
         </is>
       </c>
     </row>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>bias review ive ever read☠️☠️☠️for starter camera quality main camera look s23 telephoto ultrawide low mp count there literally nothing wrong design color great rlly like turquoise colour color suit camera ring arent even bad☠️ chipset use s23 fe use s22 basically exynos 22008 gen 1 improve literally high benchmark score phone never overheat get warm never hot phone flagship feature like wireless chargingsamsung dexwifi 6e premium like build get s22 battery horrendous maybe one ui 6 good bet dont get s23 fe slander go one long second ppl saw exynos 22008 gen 1 immediately biased review without even look phone great💯</t>
+          <t>bias review ive ever readfor starter camera quality main camera look s23 telephoto ultrawide low mp count there literally nothing wrong design color great rlly like turquoise colour color suit camera ring arent even bad chipset use s23 fe use s22 basically exynos 22008 gen 1 improve literally high benchmark score phone never overheat get warm never hot phone flagship feature like wireless chargingsamsung dexwifi 6e premium like build get s22 battery horrendous maybe one ui 6 good bet dont get s23 fe slander go one long second ppl saw exynos 22008 gen 1 immediately biased review without even look phone great</t>
         </is>
       </c>
     </row>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>mobile two different chip strategy doesn’t work samsung mistake</t>
+          <t>mobile two different chip strategy doesnt work samsung mistake</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>don´t think a5x series always popular</t>
+          <t>dont think a5x series always popular</t>
         </is>
       </c>
     </row>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>still increase battery temperature lot compare classical fast charge method here • high current even though current divide two cell total current per time use fast charge remain significantly high used classical method • internal resistance cell internal resistance generates heat current flow dualcell design two source internal resistance contribute heat generation • increase charge loss charge energy always lose heat due various factor like electrical resistance cable connector overall increased temperature loss temperature typically high fast charge system due high current involve per time use always market gimmick use also bad one fry battery high current use initially quickly charge battery certain level much low current use finish charge overheat battery degrades always charge phone heat expect expectation</t>
+          <t>still increase battery temperature lot compare classical fast charge method heres high current even though current divide two cell total current per time use fast charge remain significantly high used classical method internal resistance cell internal resistance generates heat current flow dualcell design two source internal resistance contribute heat generation increase charge loss charge energy always lose heat due various factor like electrical resistance cable connector overall increased temperature loss temperature typically high fast charge system due high current involve per time use always market gimmick use also bad one fry battery high current use initially quickly charge battery certain level much low current use finish charge overheat battery degrades always charge phone heat expect expectation</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>don´t think a5x series always popular</t>
+          <t>dont think a5x series always popular</t>
         </is>
       </c>
     </row>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>still increase battery temperature lot compare classical fast charge method here • high current even though current divide two cell total current per time use fast charge remain significantly high used classical method • internal resistance cell internal resistance generates heat current flow dualcell design two source internal resistance contribute heat generation • increase charge loss charge energy always lose heat due various factor like electrical resistance cable connector overall increased temperature loss temperature typically high fast charge system due high current involve per time use always market gimmick use also bad one fry battery high current use initially quickly charge battery certain level much low current use finish charge overheat battery degrades always charge phone heat expect expectation</t>
+          <t>still increase battery temperature lot compare classical fast charge method heres high current even though current divide two cell total current per time use fast charge remain significantly high used classical method internal resistance cell internal resistance generates heat current flow dualcell design two source internal resistance contribute heat generation increase charge loss charge energy always lose heat due various factor like electrical resistance cable connector overall increased temperature loss temperature typically high fast charge system due high current involve per time use always market gimmick use also bad one fry battery high current use initially quickly charge battery certain level much low current use finish charge overheat battery degrades always charge phone heat expect expectation</t>
         </is>
       </c>
     </row>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>word wise it’s know fact faster charge accelerates degradation cell phone accord xiaomi 100w fast charge cause 20 loss battery capacity 30w fast charging</t>
+          <t>word wise know fact faster charge accelerates degradation cell phone accord xiaomi 100w fast charge cause 20 loss battery capacity 30w fast charging</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>gigantic screen frame ◑﹏◐</t>
+          <t>gigantic screen frame</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>still increase battery temperature lot compare classical fast charge method here • high current even though current divide two cell total current per time use fast charge remain significantly high used classical method • internal resistance cell internal resistance generates heat current flow dualcell design two source internal resistance contribute heat generation • increase charge loss charge energy always lose heat due various factor like electrical resistance cable connector overall increased temperature loss temperature typically high fast charge system due high current involve per time use always market gimmick use also bad one fry battery high current use initially quickly charge battery certain level much low current use finish charge overheat battery degrades always charge phone heat expect expectation</t>
+          <t>still increase battery temperature lot compare classical fast charge method heres high current even though current divide two cell total current per time use fast charge remain significantly high used classical method internal resistance cell internal resistance generates heat current flow dualcell design two source internal resistance contribute heat generation increase charge loss charge energy always lose heat due various factor like electrical resistance cable connector overall increased temperature loss temperature typically high fast charge system due high current involve per time use always market gimmick use also bad one fry battery high current use initially quickly charge battery certain level much low current use finish charge overheat battery degrades always charge phone heat expect expectation</t>
         </is>
       </c>
     </row>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>word wise it’s know fact faster charge accelerates degradation cell phone accord xiaomi 100w fast charge cause 20 loss battery capacity 30w fast charging</t>
+          <t>word wise know fact faster charge accelerates degradation cell phone accord xiaomi 100w fast charge cause 20 loss battery capacity 30w fast charging</t>
         </is>
       </c>
     </row>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>gigantic screen frame ◑﹏◐</t>
+          <t>gigantic screen frame</t>
         </is>
       </c>
     </row>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>word wise it’s know fact faster charge accelerates degradation cell phone accord xiaomi 100w fast charge cause 20 loss battery capacity 30w fast charging</t>
+          <t>word wise know fact faster charge accelerates degradation cell phone accord xiaomi 100w fast charge cause 20 loss battery capacity 30w fast charging</t>
         </is>
       </c>
     </row>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>gigantic screen frame ◑﹏◐</t>
+          <t>gigantic screen frame</t>
         </is>
       </c>
     </row>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>processor 🔥regardless firm ex sony samsungetc doesnt worth hard pas last true fan edition s20 fe 5g model dead start</t>
+          <t>processor regardless firm ex sony samsungetc doesnt worth hard pas last true fan edition s20 fe 5g model dead start</t>
         </is>
       </c>
     </row>
@@ -15136,7 +15136,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>abysmal 2016 screen body ratio sd card headphone jack 👏</t>
+          <t>abysmal 2016 screen body ratio sd card headphone jack</t>
         </is>
       </c>
     </row>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>snapdragon 8 gen 1 faulty processor samsung use snapdragon 8gen 1 chipset market also phone low touch speed game annoying😶</t>
+          <t>snapdragon 8 gen 1 faulty processor samsung use snapdragon 8gen 1 chipset market also phone low touch speed game annoy</t>
         </is>
       </c>
     </row>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>processor 🔥regardless firm ex sony samsungetc doesnt worth hard pas last true fan edition s20 fe 5g model dead start</t>
+          <t>processor regardless firm ex sony samsungetc doesnt worth hard pas last true fan edition s20 fe 5g model dead start</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>abysmal 2016 screen body ratio sd card headphone jack 👏</t>
+          <t>abysmal 2016 screen body ratio sd card headphone jack</t>
         </is>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>snapdragon 8 gen 1 faulty processor samsung use snapdragon 8gen 1 chipset market also phone low touch speed game annoying😶</t>
+          <t>snapdragon 8 gen 1 faulty processor samsung use snapdragon 8gen 1 chipset market also phone low touch speed game annoy</t>
         </is>
       </c>
     </row>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>enough samsung fix touch speed phone little delay game instead exyno 2200 use snap dragon 8gen1 make phone really amazing large margin page also annoy much two case above☺</t>
+          <t>enough samsung fix touch speed phone little delay game instead exyno 2200 use snap dragon 8gen1 make phone really amazing large margin page also annoy much two case</t>
         </is>
       </c>
     </row>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>thing save party price 400 buck €</t>
+          <t>thing save party price 400 buck</t>
         </is>
       </c>
     </row>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Laughing Out Loud think phone make fake samsung cuz look like😂</t>
+          <t>Laughing Out Loud think phone make fake samsung cuz look like</t>
         </is>
       </c>
     </row>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>processor 🔥regardless firm ex sony samsungetc doesnt worth hard pas last true fan edition s20 fe 5g model dead start</t>
+          <t>processor regardless firm ex sony samsungetc doesnt worth hard pas last true fan edition s20 fe 5g model dead start</t>
         </is>
       </c>
     </row>
@@ -17044,7 +17044,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>abysmal 2016 screen body ratio sd card headphone jack 👏</t>
+          <t>abysmal 2016 screen body ratio sd card headphone jack</t>
         </is>
       </c>
     </row>
@@ -17068,7 +17068,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>snapdragon 8 gen 1 faulty processor samsung use snapdragon 8gen 1 chipset market also phone low touch speed game annoying😶</t>
+          <t>snapdragon 8 gen 1 faulty processor samsung use snapdragon 8gen 1 chipset market also phone low touch speed game annoy</t>
         </is>
       </c>
     </row>
@@ -17160,7 +17160,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>enough samsung fix touch speed phone little delay game instead exyno 2200 use snap dragon 8gen1 make phone really amazing large margin page also annoy much two case above☺</t>
+          <t>enough samsung fix touch speed phone little delay game instead exyno 2200 use snap dragon 8gen1 make phone really amazing large margin page also annoy much two case</t>
         </is>
       </c>
     </row>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>thing save party price 400 buck €</t>
+          <t>thing save party price 400 buck</t>
         </is>
       </c>
     </row>
@@ -17427,7 +17427,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>Laughing Out Loud think phone make fake samsung cuz look like😂</t>
+          <t>Laughing Out Loud think phone make fake samsung cuz look like</t>
         </is>
       </c>
     </row>
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>dont like go note 10 plus feel like huge downgrade external port headset external storage sd card bad doesnt even sit flat table think sit camera rock 🤔 actually think less like wanted pay monthly fee storage id buy iphone</t>
+          <t>dont like go note 10 plus feel like huge downgrade external port headset external storage sd card bad doesnt even sit flat table think sit camera rock actually think less like wanted pay monthly fee storage id buy iphone</t>
         </is>
       </c>
     </row>
@@ -18022,7 +18022,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>still find people think fe mean founder edition like nvidia Laugh My A.. Off something like</t>
+          <t>still find people think fe mean founder edition like nvidia Laugh My A Off something like</t>
         </is>
       </c>
     </row>
@@ -18092,7 +18092,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>enough samsung fix touch speed phone little delay game instead exyno 2200 use snap dragon 8gen1 make phone really amazing large margin page also annoy much two case above☺</t>
+          <t>enough samsung fix touch speed phone little delay game instead exyno 2200 use snap dragon 8gen1 make phone really amazing large margin page also annoy much two case</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18136,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>thing save party price 400 buck €</t>
+          <t>thing save party price 400 buck</t>
         </is>
       </c>
     </row>
@@ -18359,7 +18359,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Laughing Out Loud think phone make fake samsung cuz look like😂</t>
+          <t>Laughing Out Loud think phone make fake samsung cuz look like</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18606,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>dont like go note 10 plus feel like huge downgrade external port headset external storage sd card bad doesnt even sit flat table think sit camera rock 🤔 actually think less like wanted pay monthly fee storage id buy iphone</t>
+          <t>dont like go note 10 plus feel like huge downgrade external port headset external storage sd card bad doesnt even sit flat table think sit camera rock actually think less like wanted pay monthly fee storage id buy iphone</t>
         </is>
       </c>
     </row>
@@ -18954,7 +18954,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>still find people think fe mean founder edition like nvidia Laugh My A.. Off something like</t>
+          <t>still find people think fe mean founder edition like nvidia Laugh My A Off something like</t>
         </is>
       </c>
     </row>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>yes s23 ultra good 🤣</t>
+          <t>yes s23 ultra good</t>
         </is>
       </c>
     </row>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>dont like go note 10 plus feel like huge downgrade external port headset external storage sd card bad doesnt even sit flat table think sit camera rock 🤔 actually think less like wanted pay monthly fee storage id buy iphone</t>
+          <t>dont like go note 10 plus feel like huge downgrade external port headset external storage sd card bad doesnt even sit flat table think sit camera rock actually think less like wanted pay monthly fee storage id buy iphone</t>
         </is>
       </c>
     </row>
@@ -19869,7 +19869,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>still find people think fe mean founder edition like nvidia Laugh My A.. Off something like</t>
+          <t>still find people think fe mean founder edition like nvidia Laugh My A Off something like</t>
         </is>
       </c>
     </row>
@@ -19938,7 +19938,7 @@
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>yes s23 ultra good 🤣</t>
+          <t>yes s23 ultra good</t>
         </is>
       </c>
     </row>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>frame around screen like old image hang wall 😂</t>
+          <t>frame around screen like old image hang wall</t>
         </is>
       </c>
     </row>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>agree use s21fe happy…hated s22 shocking</t>
+          <t>agree use s21fe happyhated s22 shocking</t>
         </is>
       </c>
     </row>
@@ -20845,7 +20845,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>yes s23 ultra good 🤣</t>
+          <t>yes s23 ultra good</t>
         </is>
       </c>
     </row>
@@ -21572,7 +21572,7 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>frame around screen like old image hang wall 😂</t>
+          <t>frame around screen like old image hang wall</t>
         </is>
       </c>
     </row>
@@ -21638,7 +21638,7 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>agree use s21fe happy…hated s22 shocking</t>
+          <t>agree use s21fe happyhated s22 shocking</t>
         </is>
       </c>
     </row>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>region use exynos ☹️</t>
+          <t>region use exynos</t>
         </is>
       </c>
     </row>
@@ -22054,7 +22054,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>im still patiently wait review sure get wait s24 🤔</t>
+          <t>im still patiently wait review sure get wait s24</t>
         </is>
       </c>
     </row>
@@ -22487,7 +22487,7 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>frame around screen like old image hang wall 😂</t>
+          <t>frame around screen like old image hang wall</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>agree use s21fe happy…hated s22 shocking</t>
+          <t>agree use s21fe happyhated s22 shocking</t>
         </is>
       </c>
     </row>
@@ -22787,7 +22787,7 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>region use exynos ☹️</t>
+          <t>region use exynos</t>
         </is>
       </c>
     </row>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>im still patiently wait review sure get wait s24 🤔</t>
+          <t>im still patiently wait review sure get wait s24</t>
         </is>
       </c>
     </row>
@@ -23213,7 +23213,7 @@
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t>good phone think year chipset like purple 💜 colour reverse wireless</t>
+          <t>good phone think year chipset like purple colour reverse wireless</t>
         </is>
       </c>
     </row>
@@ -23702,7 +23702,7 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>region use exynos ☹️</t>
+          <t>region use exynos</t>
         </is>
       </c>
     </row>
@@ -23884,7 +23884,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>im still patiently wait review sure get wait s24 🤔</t>
+          <t>im still patiently wait review sure get wait s24</t>
         </is>
       </c>
     </row>
@@ -24128,7 +24128,7 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>good phone think year chipset like purple 💜 colour reverse wireless</t>
+          <t>good phone think year chipset like purple colour reverse wireless</t>
         </is>
       </c>
     </row>
@@ -25023,7 +25023,7 @@
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>good phone think year chipset like purple 💜 colour reverse wireless</t>
+          <t>good phone think year chipset like purple colour reverse wireless</t>
         </is>
       </c>
     </row>
@@ -26192,7 +26192,7 @@
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>samsung galaxy s21 ultra 5g even good 300 dolars less cheap Laugh My A.. Off</t>
+          <t>samsung galaxy s21 ultra 5g even good 300 dolars less cheap Laugh My A Off</t>
         </is>
       </c>
     </row>
@@ -27083,7 +27083,7 @@
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>samsung galaxy s21 ultra 5g even good 300 dolars less cheap Laugh My A.. Off</t>
+          <t>samsung galaxy s21 ultra 5g even good 300 dolars less cheap Laugh My A Off</t>
         </is>
       </c>
     </row>
@@ -27237,7 +27237,7 @@
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>cheap import hong kong s23 reputable dealer less £50 samsung sell s23fe store</t>
+          <t>cheap import hong kong s23 reputable dealer le 50 samsung selling s23fe store</t>
         </is>
       </c>
     </row>
@@ -27558,7 +27558,7 @@
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>thats great point purchase a54 sale 300 back april think 300 dollar get s22 possibly note 20 ultra s23 ultra buying old flagship way go s21 5g go around 160 200 dollar get android 14 15 say 😌</t>
+          <t>thats great point purchase a54 sale 300 back april think 300 dollar get s22 possibly note 20 ultra s23 ultra buying old flagship way go s21 5g go around 160 200 dollar get android 14 15 say</t>
         </is>
       </c>
     </row>
@@ -27987,7 +27987,7 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>samsung galaxy s21 ultra 5g even good 300 dolars less cheap Laugh My A.. Off</t>
+          <t>samsung galaxy s21 ultra 5g even good 300 dolars less cheap Laugh My A Off</t>
         </is>
       </c>
     </row>
@@ -28141,7 +28141,7 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>cheap import hong kong s23 reputable dealer less £50 samsung sell s23fe store</t>
+          <t>cheap import hong kong s23 reputable dealer le 50 samsung selling s23fe store</t>
         </is>
       </c>
     </row>
@@ -28462,7 +28462,7 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>thats great point purchase a54 sale 300 back april think 300 dollar get s22 possibly note 20 ultra s23 ultra buying old flagship way go s21 5g go around 160 200 dollar get android 14 15 say 😌</t>
+          <t>thats great point purchase a54 sale 300 back april think 300 dollar get s22 possibly note 20 ultra s23 ultra buying old flagship way go s21 5g go around 160 200 dollar get android 14 15 say</t>
         </is>
       </c>
     </row>
@@ -28893,7 +28893,7 @@
       </c>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>review say 4k 60fps look amazing launch price 500€ go buy one</t>
+          <t>review say 4k 60fps look amazing launch price 500 go buy one</t>
         </is>
       </c>
     </row>
@@ -29047,7 +29047,7 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>cheap import hong kong s23 reputable dealer less £50 samsung sell s23fe store</t>
+          <t>cheap import hong kong s23 reputable dealer le 50 samsung selling s23fe store</t>
         </is>
       </c>
     </row>
@@ -29368,7 +29368,7 @@
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>thats great point purchase a54 sale 300 back april think 300 dollar get s22 possibly note 20 ultra s23 ultra buying old flagship way go s21 5g go around 160 200 dollar get android 14 15 say 😌</t>
+          <t>thats great point purchase a54 sale 300 back april think 300 dollar get s22 possibly note 20 ultra s23 ultra buying old flagship way go s21 5g go around 160 200 dollar get android 14 15 say</t>
         </is>
       </c>
     </row>
@@ -29799,7 +29799,7 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>review say 4k 60fps look amazing launch price 500€ go buy one</t>
+          <t>review say 4k 60fps look amazing launch price 500 go buy one</t>
         </is>
       </c>
     </row>
@@ -30712,7 +30712,7 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>review say 4k 60fps look amazing launch price 500€ go buy one</t>
+          <t>review say 4k 60fps look amazing launch price 500 go buy one</t>
         </is>
       </c>
     </row>
@@ -31392,7 +31392,7 @@
       </c>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off wonder make well</t>
+          <t>Laugh My A Off wonder make well</t>
         </is>
       </c>
     </row>
@@ -32292,7 +32292,7 @@
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off wonder make well</t>
+          <t>Laugh My A Off wonder make well</t>
         </is>
       </c>
     </row>
@@ -32644,7 +32644,7 @@
       </c>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>prefer s21fe don’t like glass back heavy get 120hz also it’s great phone use 200g bit heavy</t>
+          <t>prefer s21fe dont like glass back heavy get 120hz also great phone use 200g bit heavy</t>
         </is>
       </c>
     </row>
@@ -32821,7 +32821,7 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off even s10e high ratio</t>
+          <t>Laugh My A Off even s10e high ratio</t>
         </is>
       </c>
     </row>
@@ -32843,7 +32843,7 @@
       </c>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>832 screentobody ratio 😄</t>
+          <t>832 screentobody ratio</t>
         </is>
       </c>
     </row>
@@ -33179,7 +33179,7 @@
       </c>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off wonder make well</t>
+          <t>Laugh My A Off wonder make well</t>
         </is>
       </c>
     </row>
@@ -33531,7 +33531,7 @@
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>prefer s21fe don’t like glass back heavy get 120hz also it’s great phone use 200g bit heavy</t>
+          <t>prefer s21fe dont like glass back heavy get 120hz also great phone use 200g bit heavy</t>
         </is>
       </c>
     </row>
@@ -33708,7 +33708,7 @@
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off even s10e high ratio</t>
+          <t>Laugh My A Off even s10e high ratio</t>
         </is>
       </c>
     </row>
@@ -33730,7 +33730,7 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>832 screentobody ratio 😄</t>
+          <t>832 screentobody ratio</t>
         </is>
       </c>
     </row>
@@ -33912,7 +33912,7 @@
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>gorilla glass victus 😔</t>
+          <t>gorilla glass victus</t>
         </is>
       </c>
     </row>
@@ -34186,7 +34186,7 @@
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off</t>
+          <t>Laugh My A Off</t>
         </is>
       </c>
     </row>
@@ -34296,7 +34296,7 @@
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>like a54 5g 20…no need make phone</t>
+          <t>like a54 5g 20no need make phone</t>
         </is>
       </c>
     </row>
@@ -34430,7 +34430,7 @@
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>prefer s21fe don’t like glass back heavy get 120hz also it’s great phone use 200g bit heavy</t>
+          <t>prefer s21fe dont like glass back heavy get 120hz also great phone use 200g bit heavy</t>
         </is>
       </c>
     </row>
@@ -34607,7 +34607,7 @@
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off even s10e high ratio</t>
+          <t>Laugh My A Off even s10e high ratio</t>
         </is>
       </c>
     </row>
@@ -34629,7 +34629,7 @@
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>832 screentobody ratio 😄</t>
+          <t>832 screentobody ratio</t>
         </is>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>gorilla glass victus 😔</t>
+          <t>gorilla glass victus</t>
         </is>
       </c>
     </row>
@@ -35085,7 +35085,7 @@
       </c>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off</t>
+          <t>Laugh My A Off</t>
         </is>
       </c>
     </row>
@@ -35195,7 +35195,7 @@
       </c>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>like a54 5g 20…no need make phone</t>
+          <t>like a54 5g 20no need make phone</t>
         </is>
       </c>
     </row>
@@ -35723,7 +35723,7 @@
       </c>
       <c r="D1535" t="inlineStr">
         <is>
-          <t>gorilla glass victus 😔</t>
+          <t>gorilla glass victus</t>
         </is>
       </c>
     </row>
@@ -35997,7 +35997,7 @@
       </c>
       <c r="D1547" t="inlineStr">
         <is>
-          <t>Laugh My A.. Off</t>
+          <t>Laugh My A Off</t>
         </is>
       </c>
     </row>
@@ -36107,7 +36107,7 @@
       </c>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>like a54 5g 20…no need make phone</t>
+          <t>like a54 5g 20no need make phone</t>
         </is>
       </c>
     </row>
@@ -36834,7 +36834,7 @@
       </c>
       <c r="D1584" t="inlineStr">
         <is>
-          <t>full flagship 256gb non expandable hope clown samsung happy 🤡</t>
+          <t>full flagship 256gb non expandable hope clown samsung happy</t>
         </is>
       </c>
     </row>
@@ -37013,7 +37013,7 @@
       </c>
       <c r="D1592" t="inlineStr">
         <is>
-          <t>it’s s22 uglier</t>
+          <t>s22 uglier</t>
         </is>
       </c>
     </row>
@@ -37738,7 +37738,7 @@
       </c>
       <c r="D1624" t="inlineStr">
         <is>
-          <t>full flagship 256gb non expandable hope clown samsung happy 🤡</t>
+          <t>full flagship 256gb non expandable hope clown samsung happy</t>
         </is>
       </c>
     </row>
@@ -37917,7 +37917,7 @@
       </c>
       <c r="D1632" t="inlineStr">
         <is>
-          <t>it’s s22 uglier</t>
+          <t>s22 uglier</t>
         </is>
       </c>
     </row>
@@ -38699,7 +38699,7 @@
       </c>
       <c r="D1664" t="inlineStr">
         <is>
-          <t>full flagship 256gb non expandable hope clown samsung happy 🤡</t>
+          <t>full flagship 256gb non expandable hope clown samsung happy</t>
         </is>
       </c>
     </row>
@@ -38878,7 +38878,7 @@
       </c>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>it’s s22 uglier</t>
+          <t>s22 uglier</t>
         </is>
       </c>
     </row>
@@ -39682,7 +39682,7 @@
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>snapdragon 8 gen 1 better In My Opinion see exynos faint look like a54 s2122 fe look much nicer rebrand 🤮 s23 well</t>
+          <t>snapdragon 8 gen 1 better In My Opinion see exynos faint look like a54 s2122 fe look much nicer rebrand s23 well</t>
         </is>
       </c>
     </row>
@@ -40642,7 +40642,7 @@
       </c>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>snapdragon 8 gen 1 better In My Opinion see exynos faint look like a54 s2122 fe look much nicer rebrand 🤮 s23 well</t>
+          <t>snapdragon 8 gen 1 better In My Opinion see exynos faint look like a54 s2122 fe look much nicer rebrand s23 well</t>
         </is>
       </c>
     </row>
@@ -41068,7 +41068,7 @@
       </c>
       <c r="D1764" t="inlineStr">
         <is>
-          <t>uggh exynos yet again😢😢 hop buy guess replace s20 fe 5g battery use</t>
+          <t>uggh exynos yet hop buy guess replace s20 fe 5g battery use</t>
         </is>
       </c>
     </row>
@@ -41156,7 +41156,7 @@
       </c>
       <c r="D1768" t="inlineStr">
         <is>
-          <t>ugh exynos doa already ❌</t>
+          <t>ugh exynos doa already</t>
         </is>
       </c>
     </row>
@@ -41536,7 +41536,7 @@
       </c>
       <c r="D1785" t="inlineStr">
         <is>
-          <t>snapdragon 8 gen 1 better In My Opinion see exynos faint look like a54 s2122 fe look much nicer rebrand 🤮 s23 well</t>
+          <t>snapdragon 8 gen 1 better In My Opinion see exynos faint look like a54 s2122 fe look much nicer rebrand s23 well</t>
         </is>
       </c>
     </row>
@@ -41962,7 +41962,7 @@
       </c>
       <c r="D1804" t="inlineStr">
         <is>
-          <t>uggh exynos yet again😢😢 hop buy guess replace s20 fe 5g battery use</t>
+          <t>uggh exynos yet hop buy guess replace s20 fe 5g battery use</t>
         </is>
       </c>
     </row>
@@ -42050,7 +42050,7 @@
       </c>
       <c r="D1808" t="inlineStr">
         <is>
-          <t>ugh exynos doa already ❌</t>
+          <t>ugh exynos doa already</t>
         </is>
       </c>
     </row>
@@ -42270,7 +42270,7 @@
       </c>
       <c r="D1817" t="inlineStr">
         <is>
-          <t>real😂</t>
+          <t>real</t>
         </is>
       </c>
     </row>
@@ -42292,7 +42292,7 @@
       </c>
       <c r="D1818" t="inlineStr">
         <is>
-          <t>recommend winter prebuilt handwarmer function 👍👍👍</t>
+          <t>recommend winter prebuilt handwarmer function</t>
         </is>
       </c>
     </row>
@@ -42424,7 +42424,7 @@
       </c>
       <c r="D1823" t="inlineStr">
         <is>
-          <t>exynos processor🥶🥶🥶 waste phone sd version u model dont waste money</t>
+          <t>exynos processor waste phone sd version u model dont waste money</t>
         </is>
       </c>
     </row>
@@ -42472,7 +42472,7 @@
       </c>
       <c r="D1825" t="inlineStr">
         <is>
-          <t>could imagine new epic meh 🤔🤭 samsung fool people new whatever fact ok level pay 600 phone get plus even old ultra model price tiny bit</t>
+          <t>could imagine new epic meh samsung fool people new whatever fact ok level pay 600 phone get plus even old ultra model price tiny bit</t>
         </is>
       </c>
     </row>
@@ -42606,7 +42606,7 @@
       </c>
       <c r="D1831" t="inlineStr">
         <is>
-          <t>209g 64 inch phone 💀</t>
+          <t>209g 64 inch phone</t>
         </is>
       </c>
     </row>
@@ -42628,7 +42628,7 @@
       </c>
       <c r="D1832" t="inlineStr">
         <is>
-          <t>could great isn’t h c c af bezel</t>
+          <t>could great isnt h c c af bezel</t>
         </is>
       </c>
     </row>
@@ -42898,7 +42898,7 @@
       </c>
       <c r="D1844" t="inlineStr">
         <is>
-          <t>uggh exynos yet again😢😢 hop buy guess replace s20 fe 5g battery use</t>
+          <t>uggh exynos yet hop buy guess replace s20 fe 5g battery use</t>
         </is>
       </c>
     </row>
@@ -42986,7 +42986,7 @@
       </c>
       <c r="D1848" t="inlineStr">
         <is>
-          <t>ugh exynos doa already ❌</t>
+          <t>ugh exynos doa already</t>
         </is>
       </c>
     </row>
@@ -43206,7 +43206,7 @@
       </c>
       <c r="D1857" t="inlineStr">
         <is>
-          <t>real😂</t>
+          <t>real</t>
         </is>
       </c>
     </row>
@@ -43228,7 +43228,7 @@
       </c>
       <c r="D1858" t="inlineStr">
         <is>
-          <t>recommend winter prebuilt handwarmer function 👍👍👍</t>
+          <t>recommend winter prebuilt handwarmer function</t>
         </is>
       </c>
     </row>
@@ -43360,7 +43360,7 @@
       </c>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>exynos processor🥶🥶🥶 waste phone sd version u model dont waste money</t>
+          <t>exynos processor waste phone sd version u model dont waste money</t>
         </is>
       </c>
     </row>
@@ -43408,7 +43408,7 @@
       </c>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>could imagine new epic meh 🤔🤭 samsung fool people new whatever fact ok level pay 600 phone get plus even old ultra model price tiny bit</t>
+          <t>could imagine new epic meh samsung fool people new whatever fact ok level pay 600 phone get plus even old ultra model price tiny bit</t>
         </is>
       </c>
     </row>
@@ -43542,7 +43542,7 @@
       </c>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>209g 64 inch phone 💀</t>
+          <t>209g 64 inch phone</t>
         </is>
       </c>
     </row>
@@ -43564,7 +43564,7 @@
       </c>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>could great isn’t h c c af bezel</t>
+          <t>could great isnt h c c af bezel</t>
         </is>
       </c>
     </row>
@@ -44141,7 +44141,7 @@
       </c>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>real😂</t>
+          <t>real</t>
         </is>
       </c>
     </row>
@@ -44163,7 +44163,7 @@
       </c>
       <c r="D1898" t="inlineStr">
         <is>
-          <t>recommend winter prebuilt handwarmer function 👍👍👍</t>
+          <t>recommend winter prebuilt handwarmer function</t>
         </is>
       </c>
     </row>
@@ -44295,7 +44295,7 @@
       </c>
       <c r="D1903" t="inlineStr">
         <is>
-          <t>exynos processor🥶🥶🥶 waste phone sd version u model dont waste money</t>
+          <t>exynos processor waste phone sd version u model dont waste money</t>
         </is>
       </c>
     </row>
@@ -44343,7 +44343,7 @@
       </c>
       <c r="D1905" t="inlineStr">
         <is>
-          <t>could imagine new epic meh 🤔🤭 samsung fool people new whatever fact ok level pay 600 phone get plus even old ultra model price tiny bit</t>
+          <t>could imagine new epic meh samsung fool people new whatever fact ok level pay 600 phone get plus even old ultra model price tiny bit</t>
         </is>
       </c>
     </row>
@@ -44477,7 +44477,7 @@
       </c>
       <c r="D1911" t="inlineStr">
         <is>
-          <t>209g 64 inch phone 💀</t>
+          <t>209g 64 inch phone</t>
         </is>
       </c>
     </row>
@@ -44499,7 +44499,7 @@
       </c>
       <c r="D1912" t="inlineStr">
         <is>
-          <t>could great isn’t h c c af bezel</t>
+          <t>could great isnt h c c af bezel</t>
         </is>
       </c>
     </row>
@@ -47725,7 +47725,7 @@
       </c>
       <c r="D2056" t="inlineStr">
         <is>
-          <t>rather use 8mp 5mp macro 💀💀💀</t>
+          <t>rather use 8mp 5mp macro</t>
         </is>
       </c>
     </row>
@@ -48050,7 +48050,7 @@
       </c>
       <c r="D2070" t="inlineStr">
         <is>
-          <t>well let hope samsung enough improve overheat problem exynos chipset since i’m really look forward device</t>
+          <t>well let hope samsung enough improve overheat problem exynos chipset since im really look forward device</t>
         </is>
       </c>
     </row>
@@ -48072,7 +48072,7 @@
       </c>
       <c r="D2071" t="inlineStr">
         <is>
-          <t>one funny comment😅😂</t>
+          <t>one funny comment</t>
         </is>
       </c>
     </row>
@@ -48641,7 +48641,7 @@
       </c>
       <c r="D2096" t="inlineStr">
         <is>
-          <t>rather use 8mp 5mp macro 💀💀💀</t>
+          <t>rather use 8mp 5mp macro</t>
         </is>
       </c>
     </row>
@@ -48966,7 +48966,7 @@
       </c>
       <c r="D2110" t="inlineStr">
         <is>
-          <t>well let hope samsung enough improve overheat problem exynos chipset since i’m really look forward device</t>
+          <t>well let hope samsung enough improve overheat problem exynos chipset since im really look forward device</t>
         </is>
       </c>
     </row>
@@ -48988,7 +48988,7 @@
       </c>
       <c r="D2111" t="inlineStr">
         <is>
-          <t>one funny comment😅😂</t>
+          <t>one funny comment</t>
         </is>
       </c>
     </row>
@@ -49538,7 +49538,7 @@
       </c>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>rather use 8mp 5mp macro 💀💀💀</t>
+          <t>rather use 8mp 5mp macro</t>
         </is>
       </c>
     </row>
@@ -49863,7 +49863,7 @@
       </c>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>well let hope samsung enough improve overheat problem exynos chipset since i’m really look forward device</t>
+          <t>well let hope samsung enough improve overheat problem exynos chipset since im really look forward device</t>
         </is>
       </c>
     </row>
@@ -49885,7 +49885,7 @@
       </c>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>one funny comment😅😂</t>
+          <t>one funny comment</t>
         </is>
       </c>
     </row>
@@ -50415,7 +50415,7 @@
       </c>
       <c r="D2175" t="inlineStr">
         <is>
-          <t>exynos hater you’’ve understand samsung manage solve lot although completely exynos chip’s overheat issue compare early generation sometimes horrible cool system unoptimized software cause high temperature also make chip samsung’s software could far well optimize like apple silicon chip pixel phone tensor soc thus make system smoother efficient hope switch plastic back glass one s23 fe bump ultrawide camera megapixels 8mp 12mp well high charge speed 25 watt slow modern standard 35 watt would ideal</t>
+          <t>exynos hater youve understand samsung manage solve lot although completely exynos chip overheat issue compare early generation sometimes horrible cool system unoptimized software cause high temperature also make chip samsungs software could far well optimize like apple silicon chip pixel phone tensor soc thus make system smoother efficient hope switch plastic back glass one s23 fe bump ultrawide camera megapixels 8mp 12mp well high charge speed 25 watt slow modern standard 35 watt would ideal</t>
         </is>
       </c>
     </row>
@@ -50459,7 +50459,7 @@
       </c>
       <c r="D2177" t="inlineStr">
         <is>
-          <t>it’s already stereotype chip well previous one reality think make money don’t worry</t>
+          <t>already stereotype chip well previous one reality think make money dont worry</t>
         </is>
       </c>
     </row>
@@ -51323,7 +51323,7 @@
       </c>
       <c r="D2215" t="inlineStr">
         <is>
-          <t>exynos hater you’’ve understand samsung manage solve lot although completely exynos chip’s overheat issue compare early generation sometimes horrible cool system unoptimized software cause high temperature also make chip samsung’s software could far well optimize like apple silicon chip pixel phone tensor soc thus make system smoother efficient hope switch plastic back glass one s23 fe bump ultrawide camera megapixels 8mp 12mp well high charge speed 25 watt slow modern standard 35 watt would ideal</t>
+          <t>exynos hater youve understand samsung manage solve lot although completely exynos chip overheat issue compare early generation sometimes horrible cool system unoptimized software cause high temperature also make chip samsungs software could far well optimize like apple silicon chip pixel phone tensor soc thus make system smoother efficient hope switch plastic back glass one s23 fe bump ultrawide camera megapixels 8mp 12mp well high charge speed 25 watt slow modern standard 35 watt would ideal</t>
         </is>
       </c>
     </row>
@@ -51367,7 +51367,7 @@
       </c>
       <c r="D2217" t="inlineStr">
         <is>
-          <t>it’s already stereotype chip well previous one reality think make money don’t worry</t>
+          <t>already stereotype chip well previous one reality think make money dont worry</t>
         </is>
       </c>
     </row>
@@ -51811,7 +51811,7 @@
       </c>
       <c r="D2236" t="inlineStr">
         <is>
-          <t>qualcomm sm8450 snapdragon 8 gen 1 4 nm tmc make s23 gen 2 tmc s22 gen 1 tmc didn’t make</t>
+          <t>qualcomm sm8450 snapdragon 8 gen 1 4 nm tmc make s23 gen 2 tmc s22 gen 1 tmc didnt make</t>
         </is>
       </c>
     </row>
@@ -51833,7 +51833,7 @@
       </c>
       <c r="D2237" t="inlineStr">
         <is>
-          <t>ooops microsdslot buy still call fanedition thousand user tell samsung want microsdslot sseries otherwise buy smartphones samsung won´t listen user samsung like apple user willing pay expensive storage every single time buy new iphone listen samsung don´t look appledirection smarter give user want sell lot phone ps sony announce new smartphone microsdslot</t>
+          <t>ooops microsdslot buy still call fanedition thousand user tell samsung want microsdslot sseries otherwise buy smartphones samsung wont listen user samsung like apple user willing pay expensive storage every single time buy new iphone listen samsung dont look appledirection smarter give user want sell lot phone ps sony announce new smartphone microsdslot</t>
         </is>
       </c>
     </row>
@@ -52240,7 +52240,7 @@
       </c>
       <c r="D2255" t="inlineStr">
         <is>
-          <t>exynos hater you’’ve understand samsung manage solve lot although completely exynos chip’s overheat issue compare early generation sometimes horrible cool system unoptimized software cause high temperature also make chip samsung’s software could far well optimize like apple silicon chip pixel phone tensor soc thus make system smoother efficient hope switch plastic back glass one s23 fe bump ultrawide camera megapixels 8mp 12mp well high charge speed 25 watt slow modern standard 35 watt would ideal</t>
+          <t>exynos hater youve understand samsung manage solve lot although completely exynos chip overheat issue compare early generation sometimes horrible cool system unoptimized software cause high temperature also make chip samsungs software could far well optimize like apple silicon chip pixel phone tensor soc thus make system smoother efficient hope switch plastic back glass one s23 fe bump ultrawide camera megapixels 8mp 12mp well high charge speed 25 watt slow modern standard 35 watt would ideal</t>
         </is>
       </c>
     </row>
@@ -52284,7 +52284,7 @@
       </c>
       <c r="D2257" t="inlineStr">
         <is>
-          <t>it’s already stereotype chip well previous one reality think make money don’t worry</t>
+          <t>already stereotype chip well previous one reality think make money dont worry</t>
         </is>
       </c>
     </row>
@@ -52728,7 +52728,7 @@
       </c>
       <c r="D2276" t="inlineStr">
         <is>
-          <t>qualcomm sm8450 snapdragon 8 gen 1 4 nm tmc make s23 gen 2 tmc s22 gen 1 tmc didn’t make</t>
+          <t>qualcomm sm8450 snapdragon 8 gen 1 4 nm tmc make s23 gen 2 tmc s22 gen 1 tmc didnt make</t>
         </is>
       </c>
     </row>
@@ -52750,7 +52750,7 @@
       </c>
       <c r="D2277" t="inlineStr">
         <is>
-          <t>ooops microsdslot buy still call fanedition thousand user tell samsung want microsdslot sseries otherwise buy smartphones samsung won´t listen user samsung like apple user willing pay expensive storage every single time buy new iphone listen samsung don´t look appledirection smarter give user want sell lot phone ps sony announce new smartphone microsdslot</t>
+          <t>ooops microsdslot buy still call fanedition thousand user tell samsung want microsdslot sseries otherwise buy smartphones samsung wont listen user samsung like apple user willing pay expensive storage every single time buy new iphone listen samsung dont look appledirection smarter give user want sell lot phone ps sony announce new smartphone microsdslot</t>
         </is>
       </c>
     </row>
@@ -53523,7 +53523,7 @@
       </c>
       <c r="D2311" t="inlineStr">
         <is>
-          <t>s21 fe s22 cpu s23 designe 🤣 50mp camera</t>
+          <t>s21 fe s22 cpu s23 designe 50mp camera</t>
         </is>
       </c>
     </row>
@@ -53545,7 +53545,7 @@
       </c>
       <c r="D2312" t="inlineStr">
         <is>
-          <t>way 25w 🤣🤣🤣💩</t>
+          <t>way 25w</t>
         </is>
       </c>
     </row>
@@ -53567,7 +53567,7 @@
       </c>
       <c r="D2313" t="inlineStr">
         <is>
-          <t>ois telephoto lens seriously 😂</t>
+          <t>ois telephoto lens seriously</t>
         </is>
       </c>
     </row>
@@ -53633,7 +53633,7 @@
       </c>
       <c r="D2316" t="inlineStr">
         <is>
-          <t>qualcomm sm8450 snapdragon 8 gen 1 4 nm tmc make s23 gen 2 tmc s22 gen 1 tmc didn’t make</t>
+          <t>qualcomm sm8450 snapdragon 8 gen 1 4 nm tmc make s23 gen 2 tmc s22 gen 1 tmc didnt make</t>
         </is>
       </c>
     </row>
@@ -53655,7 +53655,7 @@
       </c>
       <c r="D2317" t="inlineStr">
         <is>
-          <t>ooops microsdslot buy still call fanedition thousand user tell samsung want microsdslot sseries otherwise buy smartphones samsung won´t listen user samsung like apple user willing pay expensive storage every single time buy new iphone listen samsung don´t look appledirection smarter give user want sell lot phone ps sony announce new smartphone microsdslot</t>
+          <t>ooops microsdslot buy still call fanedition thousand user tell samsung want microsdslot sseries otherwise buy smartphones samsung wont listen user samsung like apple user willing pay expensive storage every single time buy new iphone listen samsung dont look appledirection smarter give user want sell lot phone ps sony announce new smartphone microsdslot</t>
         </is>
       </c>
     </row>
@@ -54428,7 +54428,7 @@
       </c>
       <c r="D2351" t="inlineStr">
         <is>
-          <t>s21 fe s22 cpu s23 designe 🤣 50mp camera</t>
+          <t>s21 fe s22 cpu s23 designe 50mp camera</t>
         </is>
       </c>
     </row>
@@ -54450,7 +54450,7 @@
       </c>
       <c r="D2352" t="inlineStr">
         <is>
-          <t>way 25w 🤣🤣🤣💩</t>
+          <t>way 25w</t>
         </is>
       </c>
     </row>
@@ -54472,7 +54472,7 @@
       </c>
       <c r="D2353" t="inlineStr">
         <is>
-          <t>ois telephoto lens seriously 😂</t>
+          <t>ois telephoto lens seriously</t>
         </is>
       </c>
     </row>
@@ -54697,7 +54697,7 @@
       </c>
       <c r="D2363" t="inlineStr">
         <is>
-          <t>people dont realize issue samsung release another fe chipset main issue chipset make samsung show u catastrophic result heat lag low battery life etc s22 pixel 6 7 a54 etc nobody want experience 600€ device obviously people dont issue youre lucky dont understand samsung keep push chipset year cant realize suck youre already market high quality sht stop make exynos chipsets google whats wrong tsmc s23 work absolutely perfect literally 0 issue least unit many people report great perfomances non real battery life profit important screwing people profit disgust</t>
+          <t>people dont realize issue samsung release another fe chipset main issue chipset make samsung show u catastrophic result heat lag low battery life etc s22 pixel 6 7 a54 etc nobody want experience 600 device obviously people dont issue youre lucky dont understand samsung keep push chipset year cant realize suck youre already market high quality sht stop make exynos chipsets google whats wrong tsmc s23 work absolutely perfect literally 0 issue least unit many people report great perfomances non real battery life profit important screwing people profit disgust</t>
         </is>
       </c>
     </row>
@@ -54807,7 +54807,7 @@
       </c>
       <c r="D2368" t="inlineStr">
         <is>
-          <t>xiaomi overprice too🤣🤣🤣</t>
+          <t>xiaomi overprice</t>
         </is>
       </c>
     </row>
@@ -55338,7 +55338,7 @@
       </c>
       <c r="D2391" t="inlineStr">
         <is>
-          <t>s21 fe s22 cpu s23 designe 🤣 50mp camera</t>
+          <t>s21 fe s22 cpu s23 designe 50mp camera</t>
         </is>
       </c>
     </row>
@@ -55360,7 +55360,7 @@
       </c>
       <c r="D2392" t="inlineStr">
         <is>
-          <t>way 25w 🤣🤣🤣💩</t>
+          <t>way 25w</t>
         </is>
       </c>
     </row>
@@ -55382,7 +55382,7 @@
       </c>
       <c r="D2393" t="inlineStr">
         <is>
-          <t>ois telephoto lens seriously 😂</t>
+          <t>ois telephoto lens seriously</t>
         </is>
       </c>
     </row>
@@ -55607,7 +55607,7 @@
       </c>
       <c r="D2403" t="inlineStr">
         <is>
-          <t>people dont realize issue samsung release another fe chipset main issue chipset make samsung show u catastrophic result heat lag low battery life etc s22 pixel 6 7 a54 etc nobody want experience 600€ device obviously people dont issue youre lucky dont understand samsung keep push chipset year cant realize suck youre already market high quality sht stop make exynos chipsets google whats wrong tsmc s23 work absolutely perfect literally 0 issue least unit many people report great perfomances non real battery life profit important screwing people profit disgust</t>
+          <t>people dont realize issue samsung release another fe chipset main issue chipset make samsung show u catastrophic result heat lag low battery life etc s22 pixel 6 7 a54 etc nobody want experience 600 device obviously people dont issue youre lucky dont understand samsung keep push chipset year cant realize suck youre already market high quality sht stop make exynos chipsets google whats wrong tsmc s23 work absolutely perfect literally 0 issue least unit many people report great perfomances non real battery life profit important screwing people profit disgust</t>
         </is>
       </c>
     </row>
@@ -55717,7 +55717,7 @@
       </c>
       <c r="D2408" t="inlineStr">
         <is>
-          <t>xiaomi overprice too🤣🤣🤣</t>
+          <t>xiaomi overprice</t>
         </is>
       </c>
     </row>
@@ -56191,7 +56191,7 @@
       </c>
       <c r="D2429" t="inlineStr">
         <is>
-          <t>mp ≠ quality a54s ultrawide barely decent even tho mile well a53s s23 fe obviously well ultrawide s21 fe really good</t>
+          <t>mp quality a54s ultrawide barely decent even tho mile well a53s s23 fe obviously well ultrawide s21 fe really good</t>
         </is>
       </c>
     </row>
@@ -56279,11 +56279,7 @@
           <t>😂😭</t>
         </is>
       </c>
-      <c r="D2433" t="inlineStr">
-        <is>
-          <t>😂😭</t>
-        </is>
-      </c>
+      <c r="D2433" t="inlineStr"/>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
@@ -56506,7 +56502,7 @@
       </c>
       <c r="D2443" t="inlineStr">
         <is>
-          <t>people dont realize issue samsung release another fe chipset main issue chipset make samsung show u catastrophic result heat lag low battery life etc s22 pixel 6 7 a54 etc nobody want experience 600€ device obviously people dont issue youre lucky dont understand samsung keep push chipset year cant realize suck youre already market high quality sht stop make exynos chipsets google whats wrong tsmc s23 work absolutely perfect literally 0 issue least unit many people report great perfomances non real battery life profit important screwing people profit disgust</t>
+          <t>people dont realize issue samsung release another fe chipset main issue chipset make samsung show u catastrophic result heat lag low battery life etc s22 pixel 6 7 a54 etc nobody want experience 600 device obviously people dont issue youre lucky dont understand samsung keep push chipset year cant realize suck youre already market high quality sht stop make exynos chipsets google whats wrong tsmc s23 work absolutely perfect literally 0 issue least unit many people report great perfomances non real battery life profit important screwing people profit disgust</t>
         </is>
       </c>
     </row>
@@ -56616,7 +56612,7 @@
       </c>
       <c r="D2448" t="inlineStr">
         <is>
-          <t>xiaomi overprice too🤣🤣🤣</t>
+          <t>xiaomi overprice</t>
         </is>
       </c>
     </row>
@@ -57090,7 +57086,7 @@
       </c>
       <c r="D2469" t="inlineStr">
         <is>
-          <t>mp ≠ quality a54s ultrawide barely decent even tho mile well a53s s23 fe obviously well ultrawide s21 fe really good</t>
+          <t>mp quality a54s ultrawide barely decent even tho mile well a53s s23 fe obviously well ultrawide s21 fe really good</t>
         </is>
       </c>
     </row>
@@ -57178,11 +57174,7 @@
           <t>😂😭</t>
         </is>
       </c>
-      <c r="D2473" t="inlineStr">
-        <is>
-          <t>😂😭</t>
-        </is>
-      </c>
+      <c r="D2473" t="inlineStr"/>
     </row>
     <row r="2474">
       <c r="A2474" t="inlineStr">
@@ -57502,7 +57494,7 @@
       </c>
       <c r="D2487" t="inlineStr">
         <is>
-          <t>total upgrade s21 fe 🤢</t>
+          <t>total upgrade s21 fe</t>
         </is>
       </c>
     </row>
@@ -57590,7 +57582,7 @@
       </c>
       <c r="D2491" t="inlineStr">
         <is>
-          <t>gen1 term battery efficiency trash i’d rather get s23</t>
+          <t>gen1 term battery efficiency trash id rather get s23</t>
         </is>
       </c>
     </row>
@@ -57989,7 +57981,7 @@
       </c>
       <c r="D2509" t="inlineStr">
         <is>
-          <t>mp ≠ quality a54s ultrawide barely decent even tho mile well a53s s23 fe obviously well ultrawide s21 fe really good</t>
+          <t>mp quality a54s ultrawide barely decent even tho mile well a53s s23 fe obviously well ultrawide s21 fe really good</t>
         </is>
       </c>
     </row>
@@ -58077,11 +58069,7 @@
           <t>😂😭</t>
         </is>
       </c>
-      <c r="D2513" t="inlineStr">
-        <is>
-          <t>😂😭</t>
-        </is>
-      </c>
+      <c r="D2513" t="inlineStr"/>
     </row>
     <row r="2514">
       <c r="A2514" t="inlineStr">
@@ -58401,7 +58389,7 @@
       </c>
       <c r="D2527" t="inlineStr">
         <is>
-          <t>total upgrade s21 fe 🤢</t>
+          <t>total upgrade s21 fe</t>
         </is>
       </c>
     </row>
@@ -58489,7 +58477,7 @@
       </c>
       <c r="D2531" t="inlineStr">
         <is>
-          <t>gen1 term battery efficiency trash i’d rather get s23</t>
+          <t>gen1 term battery efficiency trash id rather get s23</t>
         </is>
       </c>
     </row>
@@ -58764,7 +58752,7 @@
       </c>
       <c r="D2543" t="inlineStr">
         <is>
-          <t>don’t get fe range cost much flagship</t>
+          <t>dont get fe range cost much flagship</t>
         </is>
       </c>
     </row>
@@ -58852,7 +58840,7 @@
       </c>
       <c r="D2547" t="inlineStr">
         <is>
-          <t>let go boys galaxy s23 fe🗣️🔥🗽🦅🔥🦅🗽🦅🇺🇸🦅🗽🔥🦅🗽🇺🇸🇺🇸🇺🇸🦅🗽🔥🦅🇺🇸🇺🇸🦅🗽🔥🗣️🗣️🇺🇸🇺🇸🦅🗣️🗣️🗣️🗣️🗽🦅</t>
+          <t>let go boys galaxy s23 fe</t>
         </is>
       </c>
     </row>
@@ -58985,7 +58973,7 @@
       </c>
       <c r="D2553" t="inlineStr">
         <is>
-          <t>charge 25w da hell 😂</t>
+          <t>charge 25w da hell</t>
         </is>
       </c>
     </row>
